--- a/doc/BuildRegions.xlsx
+++ b/doc/BuildRegions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="11784" windowHeight="8964" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="blur" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="87">
   <si>
     <t>src:0
 dst:0</t>
@@ -173,12 +173,283 @@
 true</t>
   </si>
   <si>
+    <t>creg:0
+true
+14</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+15</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+16</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+17</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+18</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+19</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+50</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+51</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+52</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+53</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+13</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+20</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+49</t>
+  </si>
+  <si>
     <t>creg:3
-false</t>
+false
+54</t>
+  </si>
+  <si>
+    <t>creg:3
+false
+55</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+12</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+21</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+48</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+56</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+57</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+11</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+23</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+22 38</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+39 47</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+46</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+58</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+10</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+25</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+24 36</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+37</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+40</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+41 45</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+44</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+9</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+26</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+35</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+42</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+43</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+8</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+27</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+34</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+7</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+28</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+33</t>
   </si>
   <si>
     <t>creg:2
 false</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+6</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+29</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+32</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+5</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+30</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+31</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+4</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+3</t>
+  </si>
+  <si>
+    <t>creg:0
+true
+2</t>
+  </si>
+  <si>
+    <t>creg:2
+false
+1</t>
+  </si>
+  <si>
+    <t>creg:2
+false
+0</t>
   </si>
 </sst>
 </file>
@@ -186,9 +457,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -201,14 +472,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,8 +499,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,28 +541,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,24 +576,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,6 +602,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,13 +690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,19 +726,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,25 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,54 +847,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,24 +874,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -624,19 +895,34 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -653,21 +939,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,10 +989,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,16 +1001,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,115 +1019,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4233,8 +4504,8 @@
   <sheetPr/>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="$A1:$XFD1048576"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1111111111111" defaultRowHeight="60" customHeight="1"/>
@@ -6217,7 +6488,7 @@
   <sheetPr/>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="K26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8261,7 +8532,7 @@
   <sheetPr/>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -9281,8 +9552,8 @@
   <sheetPr/>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1111111111111" defaultRowHeight="60" customHeight="1"/>
@@ -9293,34 +9564,34 @@
     <row r="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -9335,7 +9606,7 @@
     <row r="2" customFormat="1" customHeight="1" spans="1:20">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -9350,10 +9621,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
@@ -9362,10 +9633,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>19</v>
@@ -9393,7 +9664,7 @@
     <row r="3" customFormat="1" customHeight="1" spans="1:20">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>20</v>
@@ -9408,10 +9679,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>20</v>
@@ -9423,10 +9694,10 @@
         <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>21</v>
@@ -9451,7 +9722,7 @@
     <row r="4" customFormat="1" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>20</v>
@@ -9463,16 +9734,16 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>20</v>
@@ -9484,7 +9755,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>30</v>
@@ -9509,7 +9780,7 @@
     <row r="5" customFormat="1" customHeight="1" spans="1:20">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -9518,22 +9789,22 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>20</v>
@@ -9567,7 +9838,7 @@
     <row r="6" customFormat="1" customHeight="1" spans="1:20">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
@@ -9576,10 +9847,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>20</v>
@@ -9588,10 +9859,10 @@
         <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>20</v>
@@ -9625,7 +9896,7 @@
     <row r="7" customFormat="1" customHeight="1" spans="1:20">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -9634,10 +9905,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>20</v>
@@ -9683,7 +9954,7 @@
     <row r="8" customFormat="1" customHeight="1" spans="1:20">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
@@ -9692,10 +9963,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>20</v>
@@ -9725,10 +9996,10 @@
         <v>17</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>25</v>
@@ -9741,7 +10012,7 @@
     <row r="9" customFormat="1" customHeight="1" spans="1:20">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>20</v>
@@ -9750,10 +10021,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>20</v>
@@ -9786,7 +10057,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>27</v>
@@ -9799,7 +10070,7 @@
     <row r="10" customFormat="1" customHeight="1" spans="1:20">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>20</v>
@@ -9808,10 +10079,10 @@
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>20</v>
@@ -9857,7 +10128,7 @@
     <row r="11" customFormat="1" customHeight="1" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>20</v>
@@ -9915,7 +10186,7 @@
     <row r="12" customFormat="1" customHeight="1" spans="1:20">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>20</v>
@@ -9973,7 +10244,7 @@
     <row r="13" customFormat="1" customHeight="1" spans="1:20">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>20</v>
@@ -10031,10 +10302,10 @@
     <row r="14" customFormat="1" customHeight="1" spans="1:20">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>30</v>
